--- a/TheSixDoF/Inputs/CopperheadParameters.xlsx
+++ b/TheSixDoF/Inputs/CopperheadParameters.xlsx
@@ -75,13 +75,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,22 +137,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,78 +458,78 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -582,7 +582,7 @@
         <f>101352.9</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>

--- a/TheSixDoF/Inputs/CopperheadParameters.xlsx
+++ b/TheSixDoF/Inputs/CopperheadParameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Parameter [unit]</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +89,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,17 +131,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,26 +451,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,72 +528,106 @@
         <v>17</v>
       </c>
       <c r="B2" s="2">
-        <f>6.76656</f>
+        <v>6.76656</v>
       </c>
       <c r="C2" s="2">
-        <f>0.219075</f>
+        <v>0.219075</v>
       </c>
       <c r="D2" s="3">
-        <f>4</f>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
-        <f>3</f>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f>0.15</f>
+        <v>0.15</v>
       </c>
       <c r="G2" s="2">
-        <f>0.075</f>
+        <v>0.075</v>
       </c>
       <c r="H2" s="2">
-        <f>0.5</f>
+        <v>0.5</v>
       </c>
       <c r="I2" s="3">
-        <f>2</f>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
-        <f>1</f>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
-        <f>0.00635</f>
+        <v>0.00635</v>
       </c>
       <c r="L2" s="2">
-        <f>1.0954512</f>
+        <v>1.0954512</v>
       </c>
       <c r="M2" s="3">
-        <f>1</f>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
-        <f>7950.528877</f>
+        <v>7950.528877</v>
       </c>
       <c r="O2" s="2">
-        <f>15.2</f>
+        <v>15.2</v>
       </c>
       <c r="P2" s="2">
-        <f>0.0101012701</f>
+        <v>0.0101012701</v>
       </c>
       <c r="Q2" s="2">
-        <f>101352.9</f>
+        <v>101352.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TheSixDoF/Inputs/CopperheadParameters.xlsx
+++ b/TheSixDoF/Inputs/CopperheadParameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Parameter [unit]</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -120,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,16 +128,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,81 +439,81 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="21.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -574,59 +568,6 @@
       </c>
       <c r="Q2" s="2">
         <v>101352.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
